--- a/members.xlsx
+++ b/members.xlsx
@@ -618,7 +618,9 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="45">
-      <c r="A2" s="9"/>
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
       <c r="B2" s="11" t="s">
         <v>7</v>
       </c>
@@ -633,7 +635,9 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="45">
-      <c r="A3" s="5"/>
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
       <c r="B3" s="10" t="s">
         <v>9</v>
       </c>
@@ -648,7 +652,9 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="45">
-      <c r="A4" s="5"/>
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
       <c r="B4" s="10" t="s">
         <v>10</v>
       </c>
@@ -663,7 +669,9 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="45">
-      <c r="A5" s="5"/>
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
@@ -678,7 +686,9 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="45">
-      <c r="A6" s="5"/>
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
       <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
@@ -693,7 +703,9 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="30">
-      <c r="A7" s="5"/>
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
       <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
@@ -708,7 +720,9 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="75">
-      <c r="A8" s="5"/>
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
       <c r="B8" s="2" t="s">
         <v>16</v>
       </c>
@@ -723,7 +737,9 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="60">
-      <c r="A9" s="5"/>
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
       <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
@@ -738,7 +754,9 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="45.75" thickBot="1">
-      <c r="A10" s="6"/>
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
       <c r="B10" s="7" t="s">
         <v>18</v>
       </c>
